--- a/Mifos Automation Excels/Loan Product/2455-RBI-EPP-DB-SAR-REC-NOCOM-RNI-CTPD-DL-MD-TR-1-DATE-VAR-INST-Loanproduct.xlsx
+++ b/Mifos Automation Excels/Loan Product/2455-RBI-EPP-DB-SAR-REC-NOCOM-RNI-CTPD-DL-MD-TR-1-DATE-VAR-INST-Loanproduct.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="48">
   <si>
     <t>productname</t>
   </si>
@@ -152,10 +152,13 @@
     <t>VariableInstallmentsMaximumGap</t>
   </si>
   <si>
-    <t>2455-RBI-EPP-DB-SAR-REC-NOCOM-RNI-CTPD-DL-MD-TR-1-DATE-VAR-INST</t>
-  </si>
-  <si>
     <t>Equal principal payments</t>
+  </si>
+  <si>
+    <t>2455-RBI-EPP-DB-SAR-REC-NOCOM-RNI-CTPD-DL-MD-TR-1-DATE-VAR-INST-1st</t>
+  </si>
+  <si>
+    <t>245d</t>
   </si>
 </sst>
 </file>
@@ -539,7 +542,7 @@
   <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -553,15 +556,15 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6">
-        <v>2455</v>
+      <c r="B2" s="6" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -649,7 +652,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -829,7 +832,7 @@
         <v>33</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
